--- a/word_data.xlsx
+++ b/word_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASYUSH ARYA\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9A99D5-BEBF-4E1E-AF47-05C1234F2D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{02C067AF-0136-42B6-A0C5-BCA54CACB58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="393">
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Word Root</t>
+    <t>Noun_m</t>
+  </si>
+  <si>
+    <t>Noun_m_e</t>
+  </si>
+  <si>
+    <t>Noun_m_e1</t>
+  </si>
+  <si>
+    <t>Noun_f</t>
+  </si>
+  <si>
+    <t>Noun_f_e</t>
+  </si>
+  <si>
+    <t>Noun_f_rednt</t>
+  </si>
+  <si>
+    <t>Noun_f_rednt_e</t>
+  </si>
+  <si>
+    <t>Noun_f_rednt_e1</t>
+  </si>
+  <si>
+    <t>Root</t>
   </si>
   <si>
     <t>Word Form 1</t>
@@ -40,1178 +64,1148 @@
     <t>Word Form 4</t>
   </si>
   <si>
-    <t>Noun_m</t>
-  </si>
-  <si>
-    <t>ladZikA</t>
-  </si>
-  <si>
-    <t>ladZikana</t>
-  </si>
-  <si>
-    <t>rAjA</t>
-  </si>
-  <si>
-    <t>rAjana</t>
-  </si>
-  <si>
-    <t>Gara</t>
-  </si>
-  <si>
-    <t>Garana</t>
-  </si>
-  <si>
-    <t>Karca</t>
-  </si>
-  <si>
-    <t>Karcana</t>
-  </si>
-  <si>
-    <t>kavi</t>
-  </si>
-  <si>
-    <t>kavina</t>
-  </si>
-  <si>
-    <t>AxamI</t>
-  </si>
-  <si>
-    <t>Axamina</t>
-  </si>
-  <si>
-    <t>sawru</t>
-  </si>
-  <si>
-    <t>sawruna</t>
-  </si>
-  <si>
-    <t>AlU</t>
-  </si>
-  <si>
-    <t>Aluna</t>
-  </si>
-  <si>
-    <t>kuvAz</t>
-  </si>
-  <si>
-    <t>kuvAz/kuAz/kuvAM/kuAM</t>
-  </si>
-  <si>
-    <t>kuvazna/kuvaMna/kuazna/kuaMna</t>
-  </si>
-  <si>
-    <t>gehUz</t>
-  </si>
-  <si>
-    <t>gehUz/gehUM</t>
-  </si>
-  <si>
-    <t>gehuzna/gehuMna</t>
-  </si>
-  <si>
-    <t>kroXa</t>
-  </si>
-  <si>
-    <t>lakaTo</t>
-  </si>
-  <si>
-    <t>lakaTana/lakaTona</t>
-  </si>
-  <si>
-    <t>sarasoM</t>
-  </si>
-  <si>
-    <t>sarasoM/sarasoz</t>
-  </si>
-  <si>
-    <t>sarasoMna/sarasozna/sarasaMna/sarasazna</t>
-  </si>
-  <si>
-    <t>gosAIM</t>
-  </si>
-  <si>
-    <t>gosAIM/gosAIz</t>
-  </si>
-  <si>
-    <t>gosAIMana/gosAIzana</t>
-  </si>
-  <si>
-    <t>sonarA</t>
-  </si>
-  <si>
-    <t>sonarana</t>
-  </si>
-  <si>
-    <t>ladZike/ladZikai/ladZikE</t>
-  </si>
-  <si>
-    <t>ladZikane/ladZikanai/ladZikanE</t>
-  </si>
-  <si>
-    <t>rAje/rAjai/rAjE</t>
-  </si>
-  <si>
-    <t>rAjanai/rAjane/rAjanE</t>
-  </si>
-  <si>
-    <t>Gare/Garai/GarE</t>
-  </si>
-  <si>
-    <t>Garanai/Garane/GaranE</t>
-  </si>
-  <si>
-    <t>Karce/Karcai/KarcE</t>
-  </si>
-  <si>
-    <t>Karcanai/Karcane/KarcanE</t>
-  </si>
-  <si>
-    <t>kavie/kaviai/kaviE</t>
-  </si>
-  <si>
-    <t>kavine/kavinai/kavinE</t>
-  </si>
-  <si>
-    <t>Axamie/Axamiai/AxamiE</t>
-  </si>
-  <si>
-    <t>Axaminai/Axamine/AxaminE</t>
-  </si>
-  <si>
-    <t>sawrue/sawruai/sawruE</t>
-  </si>
-  <si>
-    <t>sawrune/sawrunai/sawrunE</t>
-  </si>
-  <si>
-    <t>Alue/Aluai/AluE</t>
-  </si>
-  <si>
-    <t>Alunai/Alune/AlunE</t>
-  </si>
-  <si>
-    <t>kuveM/kuvEM/kuvaiM/kueM/kuvEM/kuvaiM/kuvez/kuvEz/kuvazi/kuez/kuEZ/kuaiz</t>
-  </si>
-  <si>
-    <t>kuvaznai/kuvaMnai/kuMvane/kuMvanE/kuzvane/kuzvanE/kuazne/kuaMne/kuaznai/kuaMnai/kuaznE/kuaMnE</t>
-  </si>
-  <si>
-    <t>gehUze/gehUMe/gehUzE/gehUME/gehUzai/gehUMai</t>
-  </si>
-  <si>
-    <t>gehuzne/gehuMne/gehuznai/gehuMnai/gehuznE/gehuMnE</t>
-  </si>
-  <si>
-    <t>kroXe/kroXE/kroXai</t>
-  </si>
-  <si>
-    <t>lakaTe/lakaTai/lakaTE</t>
-  </si>
-  <si>
-    <t>lakaTane/lakaTone/lakaTanai/lakaTonai/lakaTanE/lakaTonE</t>
-  </si>
-  <si>
-    <t>sarasoMeM/sarasozez/sarasoMEM/sarasozEz/sarasoMaiM/sarasozaiz</t>
-  </si>
-  <si>
-    <t>sarasoMne/sarasoznai/sarasaMnai/sarasaznai/sarasaMnE/sarasaznE</t>
-  </si>
-  <si>
-    <t>sarasoMne/sarasozne/sarasaMnai/sarasaznai/sarasaMnE/sarasaznE</t>
-  </si>
-  <si>
-    <t>gosAIMe/gosAIze/gosAIMaiM/gosAIzaiz/gosAIMEM/gosAIzEz</t>
-  </si>
-  <si>
-    <t>gosAIManai/gosAIzanai/gosAIMane/gosAIzane/gosAIManE/gosAIzanE</t>
-  </si>
-  <si>
-    <t>sonare/sonarai/sonarE</t>
-  </si>
-  <si>
-    <t>sonaranai/sonarane/sonaranE</t>
-  </si>
-  <si>
-    <t>Noun_m_e</t>
-  </si>
-  <si>
-    <t>Noun_m_e1</t>
-  </si>
-  <si>
-    <t>ladZiko/ladZikO/ladZikau</t>
-  </si>
-  <si>
-    <t>ladZikano/ladZikanO/ladZikanau</t>
-  </si>
-  <si>
-    <t>ladZikanO/ladZikano/ladZikanau</t>
-  </si>
-  <si>
-    <t>rAjo/rAjO/rAjau</t>
-  </si>
-  <si>
-    <t>rAjano/rAjanO/rAjanau</t>
-  </si>
-  <si>
-    <t>Garo/GarO/Garau</t>
-  </si>
-  <si>
-    <t>Garano/GaranO/Garanau</t>
-  </si>
-  <si>
-    <t>Karco/KarcO/Karcau</t>
-  </si>
-  <si>
-    <t>Karcano/KarcanO/Karcanau</t>
-  </si>
-  <si>
-    <t>kavio/kaviau/kaviO</t>
-  </si>
-  <si>
-    <t>kavino/kavinau/kavinO</t>
-  </si>
-  <si>
-    <t>Axamio/Axamiau/AxamiO</t>
-  </si>
-  <si>
-    <t>Axaminau/Axamino/AxaminO</t>
-  </si>
-  <si>
-    <t>sawruo/sawruau/sawruO</t>
-  </si>
-  <si>
-    <t>sawruno/sawrunau/sawrunO</t>
-  </si>
-  <si>
-    <t>Aluo/Aluau/AluO</t>
-  </si>
-  <si>
-    <t>Alunau/Aluno/AlunO</t>
-  </si>
-  <si>
-    <t>kuvoM/kuvOM/kuvauM/kuvoz/kuvOz/kuvauz/kuoM/kuOM/kuaMu/kuoz/kuOz/kuazu</t>
-  </si>
-  <si>
-    <t>kuvaznau/kuvaMnau/kuMvano/kuMvanO/kuzvano/kuzvanO/kuazno/kuaMno/kuaznau/kuaMnau/kuaznO/kuaMnO</t>
-  </si>
-  <si>
-    <t>gehUzo/gehUMo/gehUzO/gehUMO/gehUzau/gehUMau</t>
-  </si>
-  <si>
-    <t>gehuzno/gehuMno/gehuznau/gehuMnau/gehuznO/gehuMnO</t>
-  </si>
-  <si>
-    <t>kroXo/kroXO/kroXau</t>
-  </si>
-  <si>
-    <t>lakaTo/lakaTau/lakaTO</t>
-  </si>
-  <si>
-    <t>lakaTano/lakaTono/lakaTanau/lakaTonau/lakaTanO/lakaTonO</t>
-  </si>
-  <si>
-    <t>sarasoMoM/sarasozoz/sarasoMOM/sarasozOz/sarasoMauM/sarasozauz</t>
-  </si>
-  <si>
-    <t>sarasoMno/sarasoznau/sarasaMnau/sarasaznau/sarasaMnO/sarasaznO</t>
-  </si>
-  <si>
-    <t>sarasoMno/sarasozno/sarasaMnau/sarasaznau/sarasaMnO/sarasaznO</t>
-  </si>
-  <si>
-    <t>gosAIMo/gosAIzo/gosAIMauM/gosAIzauz/gosAIMOM/gosAIzOz</t>
-  </si>
-  <si>
-    <t>gosAIManau/gosAIzanau/gosAIMano/gosAIzano/gosAIManO/gosAIzanO</t>
-  </si>
-  <si>
-    <t>sonaro/sonarau/sonarO</t>
-  </si>
-  <si>
-    <t>sonaranau/sonarano/sonaranO</t>
-  </si>
-  <si>
-    <t>ladZakI</t>
-  </si>
-  <si>
-    <t>ladZakina</t>
-  </si>
-  <si>
-    <t>mAI</t>
-  </si>
-  <si>
-    <t>mAI/mAyI</t>
-  </si>
-  <si>
-    <t>mAina/mAyana</t>
-  </si>
-  <si>
-    <t>rAwa</t>
-  </si>
-  <si>
-    <t>rAwana</t>
-  </si>
-  <si>
-    <t>rAwi</t>
-  </si>
-  <si>
-    <t>rAwina</t>
-  </si>
-  <si>
-    <t>Orawa</t>
-  </si>
-  <si>
-    <t>Orawana</t>
-  </si>
-  <si>
-    <t>BAsA</t>
-  </si>
-  <si>
-    <t>BAsana</t>
-  </si>
-  <si>
-    <t>gudZiyA</t>
-  </si>
-  <si>
-    <t>gudZiyA/gudZiA</t>
-  </si>
-  <si>
-    <t>gudZiyana/gudZiana</t>
-  </si>
-  <si>
-    <t>sakwi</t>
-  </si>
-  <si>
-    <t>sakwina</t>
-  </si>
-  <si>
-    <t>qwu</t>
-  </si>
-  <si>
-    <t>qwuna</t>
-  </si>
-  <si>
-    <t>bahU</t>
-  </si>
-  <si>
-    <t>bahuna</t>
-  </si>
-  <si>
-    <t>lO</t>
-  </si>
-  <si>
-    <t>lOana</t>
-  </si>
-  <si>
-    <t>mAz</t>
-  </si>
-  <si>
-    <t>mAz/mAM</t>
-  </si>
-  <si>
-    <t>mAzvana/mAzyana/mAzina/mAMvana/mAMyana/mAMzina</t>
-  </si>
-  <si>
-    <t>Poto</t>
-  </si>
-  <si>
-    <t>Potona</t>
-  </si>
-  <si>
-    <t>PotoM</t>
-  </si>
-  <si>
-    <t>PotoM/Potoz</t>
-  </si>
-  <si>
-    <t>PotoMna/Potozna</t>
-  </si>
-  <si>
-    <t>BUiM</t>
-  </si>
-  <si>
-    <t>BUiM/BUiz/BUIM/BUIz</t>
-  </si>
-  <si>
-    <t>BUiMana/BUizana/BUIMna/BUIzna</t>
-  </si>
-  <si>
-    <t>BOM</t>
-  </si>
-  <si>
-    <t>BOM/BOz</t>
-  </si>
-  <si>
-    <t>BOMana/BOzana/Bazuana/BaMuana</t>
-  </si>
-  <si>
-    <t>BarasAIM</t>
-  </si>
-  <si>
-    <t>BarasAIM/BarasAIz</t>
-  </si>
-  <si>
-    <t>BarasAiMna/barasAizna</t>
-  </si>
-  <si>
-    <t>Bora</t>
-  </si>
-  <si>
-    <t>Borana</t>
-  </si>
-  <si>
-    <t>Noun_f</t>
-  </si>
-  <si>
-    <t>Noun_f_e</t>
-  </si>
-  <si>
-    <t>ladZakie</t>
-  </si>
-  <si>
-    <t>ladZakiai</t>
-  </si>
-  <si>
-    <t>ladZakiE</t>
-  </si>
-  <si>
-    <t>ladZakine</t>
-  </si>
-  <si>
-    <t>mAie</t>
-  </si>
-  <si>
-    <t>maie</t>
-  </si>
-  <si>
-    <t>maiai</t>
-  </si>
-  <si>
-    <t>maiE</t>
-  </si>
-  <si>
-    <t>mAyie</t>
-  </si>
-  <si>
-    <t>mAyiai</t>
-  </si>
-  <si>
-    <t>mAyE</t>
-  </si>
-  <si>
-    <t>mAine</t>
-  </si>
-  <si>
-    <t>mAinai</t>
-  </si>
-  <si>
-    <t>rAwe</t>
-  </si>
-  <si>
-    <t>rAwai</t>
-  </si>
-  <si>
-    <t>rAwE</t>
-  </si>
-  <si>
-    <t>rAwane</t>
-  </si>
-  <si>
-    <t>rAwanai</t>
-  </si>
-  <si>
-    <t>rAwie</t>
-  </si>
-  <si>
-    <t>rAwiai</t>
-  </si>
-  <si>
-    <t>rAwine</t>
-  </si>
-  <si>
-    <t>rAwinai</t>
-  </si>
-  <si>
-    <t>Orawe</t>
-  </si>
-  <si>
-    <t>Orawai</t>
-  </si>
-  <si>
-    <t>OrawE</t>
-  </si>
-  <si>
-    <t>Orawane</t>
-  </si>
-  <si>
-    <t>Orawanai</t>
-  </si>
-  <si>
-    <t>BAse</t>
-  </si>
-  <si>
-    <t>BAsai</t>
-  </si>
-  <si>
-    <t>BAsE</t>
-  </si>
-  <si>
-    <t>BAsane</t>
-  </si>
-  <si>
-    <t>BAsanai</t>
-  </si>
-  <si>
-    <t>gudZiye</t>
-  </si>
-  <si>
-    <t>gudZie</t>
-  </si>
-  <si>
-    <t>gudZiyai</t>
-  </si>
-  <si>
-    <t>gudZiai</t>
-  </si>
-  <si>
-    <t>gudZiE</t>
-  </si>
-  <si>
-    <t>gudZiyane</t>
-  </si>
-  <si>
-    <t>gudZianai</t>
-  </si>
-  <si>
-    <t>gudZiane</t>
-  </si>
-  <si>
-    <t>gudZiyanE</t>
-  </si>
-  <si>
-    <t>gudZianE</t>
-  </si>
-  <si>
-    <t>sakwiai</t>
-  </si>
-  <si>
-    <t>sakwiE</t>
-  </si>
-  <si>
-    <t>sakwine</t>
-  </si>
-  <si>
-    <t>sakwinai</t>
-  </si>
-  <si>
-    <t>sakwinaE</t>
-  </si>
-  <si>
-    <t>qwuai</t>
-  </si>
-  <si>
-    <t>qwuE</t>
-  </si>
-  <si>
-    <t>qwune</t>
-  </si>
-  <si>
-    <t>qwuanai</t>
-  </si>
-  <si>
-    <t>qwunE</t>
-  </si>
-  <si>
-    <t>bahuai</t>
-  </si>
-  <si>
-    <t>bahuE</t>
-  </si>
-  <si>
-    <t>bahune</t>
-  </si>
-  <si>
-    <t>bahunai</t>
-  </si>
-  <si>
-    <t>bahunE</t>
-  </si>
-  <si>
-    <t>lOai</t>
-  </si>
-  <si>
-    <t>lOE</t>
-  </si>
-  <si>
-    <t>lOne</t>
-  </si>
-  <si>
-    <t>lOnai</t>
-  </si>
-  <si>
-    <t>lOnE</t>
-  </si>
-  <si>
-    <t>mAzE</t>
-  </si>
-  <si>
-    <t>mAze</t>
-  </si>
-  <si>
-    <t>mAMai</t>
-  </si>
-  <si>
-    <t>mAME</t>
-  </si>
-  <si>
-    <t>mAMe</t>
-  </si>
-  <si>
-    <t>mAzvane</t>
-  </si>
-  <si>
-    <t>mAMvanai</t>
-  </si>
-  <si>
-    <t>mAMvanE</t>
-  </si>
-  <si>
-    <t>mAMvane</t>
-  </si>
-  <si>
-    <t>mAzyanai</t>
-  </si>
-  <si>
-    <t>mAMyanai</t>
-  </si>
-  <si>
-    <t>mAMyanE</t>
-  </si>
-  <si>
-    <t>mAMyane</t>
-  </si>
-  <si>
-    <t>mAzine</t>
-  </si>
-  <si>
-    <t>mAzinai</t>
-  </si>
-  <si>
-    <t>mAMzinai</t>
-  </si>
-  <si>
-    <t>mAMzinE</t>
-  </si>
-  <si>
-    <t>Potoe</t>
-  </si>
-  <si>
-    <t>Potoai</t>
-  </si>
-  <si>
-    <t>Potonai</t>
-  </si>
-  <si>
-    <t>PotonE</t>
-  </si>
-  <si>
-    <t>Potoze</t>
-  </si>
-  <si>
-    <t>Potazai</t>
-  </si>
-  <si>
-    <t>PotoMai</t>
-  </si>
-  <si>
-    <t>PotoME</t>
-  </si>
-  <si>
-    <t>Potozne</t>
-  </si>
-  <si>
-    <t>Potoznai</t>
-  </si>
-  <si>
-    <t>PotoznE</t>
-  </si>
-  <si>
-    <t>PotoMnE</t>
-  </si>
-  <si>
-    <t>BUiMe</t>
-  </si>
-  <si>
-    <t>BUize</t>
-  </si>
-  <si>
-    <t>BUiMai</t>
-  </si>
-  <si>
-    <t>BUizE</t>
-  </si>
-  <si>
-    <t>BUiMane</t>
-  </si>
-  <si>
-    <t>BUizane</t>
-  </si>
-  <si>
-    <t>BUiManai</t>
-  </si>
-  <si>
-    <t>BUizanai</t>
-  </si>
-  <si>
-    <t>BOMe</t>
-  </si>
-  <si>
-    <t>BOze</t>
-  </si>
-  <si>
-    <t>BOzue</t>
-  </si>
-  <si>
-    <t>BOMue</t>
-  </si>
-  <si>
-    <t>BOzuE</t>
-  </si>
-  <si>
-    <t>BOMuE</t>
-  </si>
-  <si>
-    <t>BOMai</t>
-  </si>
-  <si>
-    <t>BOzai</t>
-  </si>
-  <si>
-    <t>BOzuai</t>
-  </si>
-  <si>
-    <t>BOzane</t>
-  </si>
-  <si>
-    <t>Bazuane</t>
-  </si>
-  <si>
-    <t>BaMuane</t>
-  </si>
-  <si>
-    <t>BOManai</t>
-  </si>
-  <si>
-    <t>BOzanai</t>
-  </si>
-  <si>
-    <t>BOManE</t>
-  </si>
-  <si>
-    <t>BOzanE</t>
-  </si>
-  <si>
-    <t>BazuanE</t>
-  </si>
-  <si>
-    <t>BaMuanE</t>
-  </si>
-  <si>
-    <t>BarasaiMaiM</t>
-  </si>
-  <si>
-    <t>Barasaizaiz</t>
-  </si>
-  <si>
-    <t>BarasAiMEM</t>
-  </si>
-  <si>
-    <t>BarasAizEz</t>
-  </si>
-  <si>
-    <t>BarasAiMne</t>
-  </si>
-  <si>
-    <t>BarasAiznaiz</t>
-  </si>
-  <si>
-    <t>BarasaiMne</t>
-  </si>
-  <si>
-    <t>Barasaizne</t>
-  </si>
-  <si>
-    <t>BarasaiMnaiM</t>
-  </si>
-  <si>
-    <t>Barasaiznaiz</t>
-  </si>
-  <si>
-    <t>Borai</t>
-  </si>
-  <si>
-    <t>BorE</t>
-  </si>
-  <si>
-    <t>Borane</t>
-  </si>
-  <si>
-    <t>Boranai</t>
-  </si>
-  <si>
-    <t>BoranE</t>
-  </si>
-  <si>
-    <t>Noun_f_rednt</t>
-  </si>
-  <si>
-    <t>ladZakiyA</t>
-  </si>
-  <si>
-    <t>ladZakiyana/ladZakiana</t>
-  </si>
-  <si>
-    <t>maiyA</t>
-  </si>
-  <si>
-    <t>maiyA/maiA</t>
-  </si>
-  <si>
-    <t>maiyana/maiana</t>
-  </si>
-  <si>
-    <t>rawiyA</t>
-  </si>
-  <si>
-    <t>rawiyA/rawiA</t>
-  </si>
-  <si>
-    <t>rawiyana/rawiana</t>
-  </si>
-  <si>
-    <t>OrawiyA</t>
-  </si>
-  <si>
-    <t>OrawiyA/OrawiA</t>
-  </si>
-  <si>
-    <t>Orawiyana/Orawiana</t>
-  </si>
-  <si>
-    <t>BasavA</t>
-  </si>
-  <si>
-    <t>Basavana</t>
-  </si>
-  <si>
-    <t>lauvA</t>
-  </si>
-  <si>
-    <t>lauvA/lauA</t>
-  </si>
-  <si>
-    <t>lauvana/lauana</t>
-  </si>
-  <si>
-    <t>gudZiyavA</t>
-  </si>
-  <si>
-    <t>gudZiyavA/gudZiavA</t>
-  </si>
-  <si>
-    <t>gudZiyavana/gudZiavana</t>
-  </si>
-  <si>
-    <t>sakwiyA</t>
-  </si>
-  <si>
-    <t>sakwiyA/sakwiA</t>
-  </si>
-  <si>
-    <t>sakwiyana/sakwiana</t>
-  </si>
-  <si>
-    <t>qwuvA</t>
-  </si>
-  <si>
-    <t>qwuvA/qwuA</t>
-  </si>
-  <si>
-    <t>qwuvana/qwuana</t>
-  </si>
-  <si>
-    <t>bahuvA</t>
-  </si>
-  <si>
-    <t>bahuvA/bahuA</t>
-  </si>
-  <si>
-    <t>bahuvana/bahuana</t>
-  </si>
-  <si>
-    <t>BoravA</t>
-  </si>
-  <si>
-    <t>Boravana</t>
-  </si>
-  <si>
-    <t>BarasaiMyAM</t>
-  </si>
-  <si>
-    <t>BarasaiMyAM/BarasaiMyAz</t>
-  </si>
-  <si>
-    <t>BarasaiMyana/Barasaizyana</t>
-  </si>
-  <si>
-    <t>BarasaiMyana/Barasaizyana/BarasaiMana/Barasaizana</t>
-  </si>
-  <si>
-    <t>BOMvAM</t>
-  </si>
-  <si>
-    <t>BOMvAM/BOzvAz</t>
-  </si>
-  <si>
-    <t>BOMvana/BOzvana</t>
-  </si>
-  <si>
-    <t>PotoMiyAM</t>
-  </si>
-  <si>
-    <t>PotoMiyAM/PotoMiyAz</t>
-  </si>
-  <si>
-    <t>PotoMiyana/Potoziyana/PotoMiana/Potoziana</t>
-  </si>
-  <si>
-    <t>BuiMyAM</t>
-  </si>
-  <si>
-    <t>BuiMyAM/BuiMyAz/BuizyAM/BuizyAz</t>
-  </si>
-  <si>
-    <t>BuiMyana/Buizyana/BuiMana/Buizana</t>
-  </si>
-  <si>
-    <t>PotoiyA</t>
-  </si>
-  <si>
-    <t>Potoiyana/Potoiana</t>
-  </si>
-  <si>
-    <t>Noun_f_rednt_e</t>
-  </si>
-  <si>
-    <t>ladZakiye/ladZakiyai/ladZakiyE</t>
-  </si>
-  <si>
-    <t>ladZakiyanai/ladZakiyane/ladZakiyanE/ladZakianai/ladZakiane/ladZakianE</t>
-  </si>
-  <si>
-    <t>maiye/maiyai/maiyE/maie/maiai/maiE</t>
-  </si>
-  <si>
-    <t>maiyanai/maiyane/maiyanE/maianai/maiane/maianE</t>
-  </si>
-  <si>
-    <t>rawiye/rawiyai/rawiyE/rawie/rawiai/rawiE</t>
-  </si>
-  <si>
-    <t>rawiyanai/rawiyane/rawiyanE/rawiane/rawianai/rawianE</t>
-  </si>
-  <si>
-    <t>Orawiye/Orawiyai/OrawiyE/Orawie/Orawiai/OrawiE</t>
-  </si>
-  <si>
-    <t>Orawiyanai/Orawiyane/OrawiyanE/Orawiane/Orawianai/OrawianE</t>
-  </si>
-  <si>
-    <t>Basave/Basavai/BasavE</t>
-  </si>
-  <si>
-    <t>Basavanai/Basavane/BasavanE</t>
-  </si>
-  <si>
-    <t>lauve/lauvai/lauvE/laue/lauai/lauE</t>
-  </si>
-  <si>
-    <t>lauvane/lauvanE/lauvanai/lauane/lauanai/laquanE</t>
-  </si>
-  <si>
-    <t>gudZiyavai/gudZiyave/gudZiyavE/gudZiavai/gudZiave/gudZiavE</t>
-  </si>
-  <si>
-    <t>gudZiyavanai/gudZiyavane/gudZiyavanE/gudZiavane/gudZiavanai/gudZiavanE</t>
-  </si>
-  <si>
-    <t>sakwiye/sakwiyai/sakwiyE</t>
-  </si>
-  <si>
-    <t>sakwiyanai/sakwiyane/sakwiyanE</t>
-  </si>
-  <si>
-    <t>bahuve/bahuvai/bahuvE</t>
-  </si>
-  <si>
-    <t>bahuvanai/bahuvane/bahuvanE</t>
-  </si>
-  <si>
-    <t>qwuve/qwuvE/qwuvai</t>
-  </si>
-  <si>
-    <t>qwuvane/qwuvanE/qwuvnai</t>
-  </si>
-  <si>
-    <t>Borave/Boravai/BoravE</t>
-  </si>
-  <si>
-    <t>Boravanai/Boravane/BoravanE</t>
-  </si>
-  <si>
-    <t>BarasaiMyeM/BarasaiMyEM/BarasaiMyaiM/BarasaiMyez/BarasaiMyEz/BarasaiMyaiz/BarasaizyeM/BarasaizyEM/BarasaizyaiM/Barasaizyez/BarasaizyEz/Barasaizyaiz</t>
-  </si>
-  <si>
-    <t>BarasaiMyaneM/BarasaiMyanaiM/BarasaiMyanEM/BarasaiMyanez/BarasaiMyanaiz/BarasaiMyanEz/Barasaizyanez/Barasaizyanaiz/BarasaizyanEz/BarasaizyaneM/BarasaizyanaiM/BarasaizyanEM</t>
-  </si>
-  <si>
-    <t>BOMveM/BOzvez/BOMvaiM/BOzvaiz/BOMvEM/BOzvEz/BOMvez/BOzveM/BOMvaiz/BOzvaiM/BOMvEz/BOzvEM</t>
-  </si>
-  <si>
-    <t>BOMvane/BOMvanai/BOMvanai/Bozvane/Bozvanai/BozvanE</t>
-  </si>
-  <si>
-    <t>BOMvane/Bozvane/BOMvanai/BOzvanai/BOMvanE/BozvanEe/</t>
-  </si>
-  <si>
-    <t>PotoMiyeM/Potoziyez/PotoMiyez/PotoziyeM/PotoMiyEM/PotoziyEz/PotoMiyEz/PotoziyEM/PotoMiyaiM/Potoziyaiz/PotoMiyaiz/PotoziyaiM</t>
-  </si>
-  <si>
-    <t>PotoMiyane/Potoziyane/PotoMiyanai/Potoziyanai/PotoMiyanE/PotoziyanE</t>
-  </si>
-  <si>
-    <t>BuiMyeM/Buizyez/BuiMyez/BuizyeM/BuiMyaiM/Buizyaiz/BuiMyaiz/BuizyaiM/BuiMyEM/BuizyEz/BuiMyEz/BuizyEM</t>
-  </si>
-  <si>
-    <t>BuiMyanai/Buizyanai/BuiMyane/Buizyane/BuiMyanE/BuizyanE</t>
-  </si>
-  <si>
-    <t>Potoiye/Potoiyai/PotoiE</t>
-  </si>
-  <si>
-    <t>Potoiyane/Potyanai/PotanE</t>
-  </si>
-  <si>
-    <t>Noun_f_rednt_e1</t>
-  </si>
-  <si>
-    <t>ladZakiyo/ladZakiyO/ladZakiyau</t>
-  </si>
-  <si>
-    <t>ladZakiyano/ladZakiyanO/ladZakiyanau/ladZakiano/ladZakianO/ladZakianau</t>
-  </si>
-  <si>
-    <t>maiyo/maiyO/maiyau/maio/maiau/maiO</t>
-  </si>
-  <si>
-    <t>maiyano/maiyanO/maiyanau/maiano/maianO/maianau</t>
-  </si>
-  <si>
-    <t>rawiyo/rawiyO/rawiyau/rawio/rawiau/rawiO</t>
-  </si>
-  <si>
-    <t>rawiyano/rawiyanO/rawiyanau/rawiano/rawianO/rawianau</t>
-  </si>
-  <si>
-    <t>Orawiyo/OrawiyO/Orawiyau/Orawio/OrawiO/Orawiau</t>
-  </si>
-  <si>
-    <t>Orawiyano/OrawiyanO/Orawiyanau/Orawiano/OrawianO/Orawianau</t>
-  </si>
-  <si>
-    <t>Basavo/BasavO/Basavau</t>
-  </si>
-  <si>
-    <t>Basavano/BasavanO/Basavanau</t>
-  </si>
-  <si>
-    <t>lauvo/lauvau/lauvO/lauo/lauau/lauO</t>
-  </si>
-  <si>
-    <t>lauvano/lauano/lauvanau/lauanau/lauvanO/lauanO/</t>
-  </si>
-  <si>
-    <t>gudZiyavo/gudZiavo/gudZiyavau/gudZiavau/gudZiyavO/gudZiavO</t>
-  </si>
-  <si>
-    <t>gudZiyavano/gudZiyavanO/gudZiyavanau/gudZiavano/gudZiavanau/gudZiavanO</t>
-  </si>
-  <si>
-    <t>sakwiyo/sakwiyO/sakwiyau</t>
-  </si>
-  <si>
-    <t>sakwiyano/sakwiyanO/sakwiyanau</t>
-  </si>
-  <si>
-    <t>bahuvo/bahuvO/bahuvau</t>
-  </si>
-  <si>
-    <t>bahuvano/bahuvanO/bahuvanau</t>
-  </si>
-  <si>
-    <t>qwuvo/qwuvO/qwuvau</t>
-  </si>
-  <si>
-    <t>qwuvano/qwuvanO/qwuvanau</t>
-  </si>
-  <si>
-    <t>Boravo/BoravO/Boravau</t>
-  </si>
-  <si>
-    <t>Boravano/BoravanO/Boravanau</t>
-  </si>
-  <si>
-    <t>BarasaiMyoM/BarasaiMyOM/BarasaiMyauM/BarasaiMyoz/BarasaiMyOz/BarasaiMyauz/BarasaizyoM/BarasaizyOM/BarasaizyauM/Barasaizyoz/BarasaizyOz/Barasaizyauz</t>
-  </si>
-  <si>
-    <t>BarasaiMyanoM/BarasaiMyanauM/BarasaiMyanOM/BarasaiMyanoz/BarasaiMyanauz/BarasaiMyanOz/Barasaizyanoz/Barasaizyanauz/BarasaizyanOz/BarasaizyanoM/BarasaizyanauM/BarasaizyanOM</t>
-  </si>
-  <si>
-    <t>BOMvoM/BOzvoz/BOMvauM/BOzvauz/BOMvOM/BOzvOz/BOMvoz/BOzvoM/BOMvauz/BOzvaM/BOMvOz/BOzvOM</t>
-  </si>
-  <si>
-    <t>BOMvano/Bozvano/BOMvanau/Bozvanau/BOMvanO/BozvanO</t>
-  </si>
-  <si>
-    <t>PotoMiyoM/Potoziyoz/PotoMiyoz/PotoziyoM/PotoMiyOM/PotoziyOz/PotoMiyOz/PotoziyOM/PotoMiyauM/Potoziyauz/PotoMiyauz/PotoziyauM</t>
-  </si>
-  <si>
-    <t>PotoMiyano/Potoziyano/PotoMiyanO/PotoziyanO/PotoMiyanau/Potoziyanau</t>
-  </si>
-  <si>
-    <t>BuiMyoM/Buizyoz/BuiMyoz/BuizyoM/BuiMyauM/Buizyauz/BuiMyauz/BuizyauM/BuiMyOM/BuizyOz/BuiMyOz/BuizyOM</t>
-  </si>
-  <si>
-    <t>BuiMyanau/Buizyanau/BuiMyanO/BuizyanO/BuiMyano/Buizyano</t>
-  </si>
-  <si>
-    <t>Potoiyo/Potoiyau/PotoiO</t>
-  </si>
-  <si>
-    <t>Potoiyano/Potyanau/PotanO</t>
-  </si>
-  <si>
-    <t>Advrb</t>
-  </si>
-  <si>
-    <t>aba</t>
+    <t>लड़िकन</t>
+  </si>
+  <si>
+    <t>राजन</t>
+  </si>
+  <si>
+    <t>घरन</t>
+  </si>
+  <si>
+    <t>खर्चन</t>
+  </si>
+  <si>
+    <t>कविन</t>
+  </si>
+  <si>
+    <t>आदमिन</t>
+  </si>
+  <si>
+    <t>सत्रुन</t>
+  </si>
+  <si>
+    <t>आलुन</t>
+  </si>
+  <si>
+    <t>कुवँन/कुवंन/कुअँन/कुअंन</t>
+  </si>
+  <si>
+    <t>गेहुँन/गेहुंन</t>
+  </si>
+  <si>
+    <t>क्रोध</t>
+  </si>
+  <si>
+    <t>लकठन/लकठोन</t>
+  </si>
+  <si>
+    <t>सरसोंन/सरसोँन/सरसंन/सरसँन</t>
+  </si>
+  <si>
+    <t>गोसाईंअन/गोसाईँअन</t>
+  </si>
+  <si>
+    <t>सोनरन</t>
+  </si>
+  <si>
+    <t>लड़िकने/लड़िकनइ/लड़िकनै</t>
+  </si>
+  <si>
+    <t>राजनइ/राजने/राजनै</t>
+  </si>
+  <si>
+    <t>घरनइ/घरने/घरनै</t>
+  </si>
+  <si>
+    <t>खर्चनइ/खर्चने/खर्चनै</t>
+  </si>
+  <si>
+    <t>कविने/कविनइ/कविनै</t>
+  </si>
+  <si>
+    <t>आदमिनइ/आदमिने/आदमिनै</t>
+  </si>
+  <si>
+    <t>सत्रुने/सत्रुनइ/सत्रुनै</t>
+  </si>
+  <si>
+    <t>आलुनइ/आलुने/आलुनै</t>
+  </si>
+  <si>
+    <t>कुवँनइ/कुवंनइ/कुंवने/कुंवनै/कुँवने/कुँवनै/कुअँने/कुअंने/कुअँनइ/कुअंनइ/कुअँनै/कुअंनै</t>
+  </si>
+  <si>
+    <t>गेहुँने/गेहुंने/गेहुँनइ/गेहुंनइ/गेहुँनै/गेहुंनै</t>
+  </si>
+  <si>
+    <t>क्रोधे/क्रोधै/क्रोधइ</t>
+  </si>
+  <si>
+    <t>लकठने/लकठोने/लकठनइ/लकठोनइ/लकठनै/लकठोनै</t>
+  </si>
+  <si>
+    <t>सरसोंने/सरसोँने/सरसंनइ/सरसँनइ/सरसंनै/सरसँनै</t>
+  </si>
+  <si>
+    <t>गोसाईंअनइ/गोसाईँअनइ/गोसाईंअने/गोसाईँअने/गोसाईंअनै/गोसाईँअनै</t>
+  </si>
+  <si>
+    <t>सोनरनइ/सोनरने/सोनरनै</t>
+  </si>
+  <si>
+    <t>लड़िकनौ/लड़िकनो/लड़िकनउ</t>
+  </si>
+  <si>
+    <t>राजनो/राजनौ/राजनउ</t>
+  </si>
+  <si>
+    <t>घरनो/घरनौ/घरनउ</t>
+  </si>
+  <si>
+    <t>खर्चनो/खर्चनौ/खर्चनउ</t>
+  </si>
+  <si>
+    <t>कविनो/कविनउ/कविनौ</t>
+  </si>
+  <si>
+    <t>आदमिनउ/आदमिनो/आदमिनौ</t>
+  </si>
+  <si>
+    <t>सत्रुनो/सत्रुनउ/सत्रुनौ</t>
+  </si>
+  <si>
+    <t>आलुनउ/आलुनो/आलुनौ</t>
+  </si>
+  <si>
+    <t>कुवँनउ/कुवंनउ/कुंवनो/कुंवनौ/कुँवनो/कुँवनौ/कुअँनो/कुअंनो/कुअँनउ/कुअंनउ/कुअँनौ/कुअंनौ</t>
+  </si>
+  <si>
+    <t>गेहुँनो/गेहुंनो/गेहुँनउ/गेहुंनउ/गेहुँनौ/गेहुंनौ</t>
+  </si>
+  <si>
+    <t>क्रोधो/क्रोधौ/क्रोधउ</t>
+  </si>
+  <si>
+    <t>लकठनो/लकठोनो/लकठनउ/लकठोनउ/लकठनौ/लकठोनौ</t>
+  </si>
+  <si>
+    <t>सरसोंनो/सरसोँनो/सरसंनउ/सरसँनउ/सरसंनौ/सरसँनौ</t>
+  </si>
+  <si>
+    <t>गोसाईंअनउ/गोसाईँअनउ/गोसाईंअनो/गोसाईँअनो/गोसाईंअनौ/गोसाईँअनौ</t>
+  </si>
+  <si>
+    <t>सोनरनउ/सोनरनो/सोनरनौ</t>
+  </si>
+  <si>
+    <t>लड़किन</t>
+  </si>
+  <si>
+    <t>माइन/मायन</t>
+  </si>
+  <si>
+    <t>रातन</t>
+  </si>
+  <si>
+    <t>रातिन</t>
+  </si>
+  <si>
+    <t>औरतन</t>
+  </si>
+  <si>
+    <t>भासन</t>
+  </si>
+  <si>
+    <t>गुड़ियन/गुड़िअन</t>
+  </si>
+  <si>
+    <t>सक्तिन</t>
+  </si>
+  <si>
+    <t>ऋतुन</t>
+  </si>
+  <si>
+    <t>बहुन</t>
+  </si>
+  <si>
+    <t>लौअन</t>
+  </si>
+  <si>
+    <t>माँवन/माँयन/माँइन/मांवन/मांयन/मांँइन</t>
+  </si>
+  <si>
+    <t>फोटोन</t>
+  </si>
+  <si>
+    <t>फोटोंन/फोटोँन</t>
+  </si>
+  <si>
+    <t>भूइंअन/भूइँअन/भूईंन/भूईँन</t>
+  </si>
+  <si>
+    <t>भौंअन/भौँअन/भँउअन/भंउअन</t>
+  </si>
+  <si>
+    <t>भरसाइंन/बरसाइँन</t>
+  </si>
+  <si>
+    <t>भोरन</t>
+  </si>
+  <si>
+    <t>लड़किने</t>
+  </si>
+  <si>
+    <t>मइऐ</t>
+  </si>
+  <si>
+    <t>माइनइ</t>
+  </si>
+  <si>
+    <t>रातनइ</t>
+  </si>
+  <si>
+    <t>रातिनइ</t>
+  </si>
+  <si>
+    <t>औरतनइ</t>
+  </si>
+  <si>
+    <t>भासनइ</t>
+  </si>
+  <si>
+    <t>गुड़िऐ</t>
+  </si>
+  <si>
+    <t>गुड़िअनै</t>
+  </si>
+  <si>
+    <t>सक्तिनऐ</t>
+  </si>
+  <si>
+    <t>ऋतुनै</t>
+  </si>
+  <si>
+    <t>बहुनै</t>
+  </si>
+  <si>
+    <t>लौनै</t>
+  </si>
+  <si>
+    <t>मांए</t>
+  </si>
+  <si>
+    <t>माँयनइ</t>
+  </si>
+  <si>
+    <t>माँइनइ</t>
+  </si>
+  <si>
+    <t>फोटोअइ</t>
+  </si>
+  <si>
+    <t>फोटँअइ</t>
+  </si>
+  <si>
+    <t>फोटोँनै</t>
+  </si>
+  <si>
+    <t>भूइंअइ</t>
+  </si>
+  <si>
+    <t>भूइँअनइ</t>
+  </si>
+  <si>
+    <t>भौंउए</t>
+  </si>
+  <si>
+    <t>भौँउअइ</t>
+  </si>
+  <si>
+    <t>भौँअनइ</t>
+  </si>
+  <si>
+    <t>भरसाईं</t>
+  </si>
+  <si>
+    <t>भरसाइंने</t>
+  </si>
+  <si>
+    <t>भरसइँनइँ</t>
+  </si>
+  <si>
+    <t>भोरनै</t>
+  </si>
+  <si>
+    <t>लड़कियन/लड़किअन</t>
+  </si>
+  <si>
+    <t>मइयन/मइअन</t>
+  </si>
+  <si>
+    <t>रतियन/रतिअन</t>
+  </si>
+  <si>
+    <t>औरतियन/औरतिअन</t>
+  </si>
+  <si>
+    <t>भसवन</t>
+  </si>
+  <si>
+    <t>लउवन/लउअन</t>
+  </si>
+  <si>
+    <t>गुड़ियवन/गुड़िअवन</t>
+  </si>
+  <si>
+    <t>सक्तियन/सक्तिअन</t>
+  </si>
+  <si>
+    <t>ऋतुवन/ऋतुअन</t>
+  </si>
+  <si>
+    <t>बहुवन/बहुअन</t>
+  </si>
+  <si>
+    <t>भोरवन</t>
+  </si>
+  <si>
+    <t>भरसइंयन/भरसइँयन/भरसइंअन/भरसइँअन</t>
+  </si>
+  <si>
+    <t>भौंवन/भौँवन</t>
+  </si>
+  <si>
+    <t>फोटोंइयन/फोटोँइयन/फोटोंइअन/फोटोँइअन</t>
+  </si>
+  <si>
+    <t>भुइंयन/भुइँयन/भुइंअन/भुइँअन</t>
+  </si>
+  <si>
+    <t>फोटोइयन/फोटोइअन</t>
+  </si>
+  <si>
+    <t>लड़कियनइ/लड़कियने/लड़कियनै/लड़किअनइ/लड़किअने/लड़किअनै</t>
+  </si>
+  <si>
+    <t>मइयनइ/मइयने/मइयनै/मइअनइ/मइअने/मइअनै</t>
+  </si>
+  <si>
+    <t>रतियनइ/रतियने/रतियनै/रतिअने/रतिअनइ/रतिअनै</t>
+  </si>
+  <si>
+    <t>औरतियनइ/औरतियने/औरतियनै/औरतिअने/औरतिअनइ/औरतिअनै</t>
+  </si>
+  <si>
+    <t>भसवनइ/भसवने/भसवनै</t>
+  </si>
+  <si>
+    <t>लउवने/लउवनै/लउवनइ/लउअने/लउअनइ/लऋउअनै</t>
+  </si>
+  <si>
+    <t>गुड़ियवनइ/गुड़ियवने/गुड़ियवनै/गुड़िअवने/गुड़िअवनइ/गुड़िअवनै</t>
+  </si>
+  <si>
+    <t>सक्तियनइ/सक्तियने/सक्तियनै</t>
+  </si>
+  <si>
+    <t>बहुवनइ/बहुवने/बहुवनै</t>
+  </si>
+  <si>
+    <t>ऋतुवने/ऋतुवनै/ऋतुव्नइ</t>
+  </si>
+  <si>
+    <t>भोरवनइ/भोरवने/भोरवनै</t>
+  </si>
+  <si>
+    <t>भरसइंयनें/भरसइंयनइं/भरसइंयनैं/भरसइंयनेँ/भरसइंयनइँ/भरसइंयनैँ/भरसइँयनेँ/भरसइँयनइँ/भरसइँयनैँ/भरसइँयनें/भरसइँयनइं/भरसइँयनैं</t>
+  </si>
+  <si>
+    <t>भौंवने/भोँवने/भौंवनइ/भौँवनइ/भौंवनै/भोँवनैए/</t>
+  </si>
+  <si>
+    <t>फोटोंइयने/फोटोँइयने/फोटोंइयनइ/फोटोँइयनइ/फोटोंइयनै/फोटोँइयनै</t>
+  </si>
+  <si>
+    <t>भुइंयनइ/भुइँयनइ/भुइंयने/भुइँयने/भुइंयनै/भुइँयनै</t>
+  </si>
+  <si>
+    <t>फोटोइयने/फोट्यनइ/फोटनै</t>
+  </si>
+  <si>
+    <t>लड़कियनो/लड़कियनौ/लड़कियनउ/लड़किअनो/लड़किअनौ/लड़किअनउ</t>
+  </si>
+  <si>
+    <t>मइयनो/मइयनौ/मइयनउ/मइअनो/मइअनौ/मइअनउ</t>
+  </si>
+  <si>
+    <t>रतियनो/रतियनौ/रतियनउ/रतिअनो/रतिअनौ/रतिअनउ</t>
+  </si>
+  <si>
+    <t>औरतियनो/औरतियनौ/औरतियनउ/औरतिअनो/औरतिअनौ/औरतिअनउ</t>
+  </si>
+  <si>
+    <t>भसवनो/भसवनौ/भसवनउ</t>
+  </si>
+  <si>
+    <t>लउवनो/लउअनो/लउवनउ/लउअनउ/लउवनौ/लउअनौ/</t>
+  </si>
+  <si>
+    <t>गुड़ियवनो/गुड़ियवनौ/गुड़ियवनउ/गुड़िअवनो/गुड़िअवनउ/गुड़िअवनौ</t>
+  </si>
+  <si>
+    <t>सक्तियनो/सक्तियनौ/सक्तियनउ</t>
+  </si>
+  <si>
+    <t>बहुवनो/बहुवनौ/बहुवनउ</t>
+  </si>
+  <si>
+    <t>ऋतुवनो/ऋतुवनौ/ऋतुवनउ</t>
+  </si>
+  <si>
+    <t>भोरवनो/भोरवनौ/भोरवनउ</t>
+  </si>
+  <si>
+    <t>भरसइंयनों/भरसइंयनउं/भरसइंयनौं/भरसइंयनोँ/भरसइंयनउँ/भरसइंयनौँ/भरसइँयनोँ/भरसइँयनउँ/भरसइँयनौँ/भरसइँयनों/भरसइँयनउं/भरसइँयनौं</t>
+  </si>
+  <si>
+    <t>भौंवनो/भोँवनो/भौंवनउ/भोँवनउ/भौंवनौ/भोँवनौ</t>
+  </si>
+  <si>
+    <t>फोटोंइयनो/फोटोँइयनो/फोटोंइयनौ/फोटोँइयनौ/फोटोंइयनउ/फोटोँइयनउ</t>
+  </si>
+  <si>
+    <t>भुइंयनउ/भुइँयनउ/भुइंयनौ/भुइँयनौ/भुइंयनो/भुइँयनो</t>
+  </si>
+  <si>
+    <t>फोटोइयनो/फोट्यनउ/फोटनौ</t>
+  </si>
+  <si>
+    <t>लड़िका</t>
+  </si>
+  <si>
+    <t>राजा</t>
+  </si>
+  <si>
+    <t>घर</t>
+  </si>
+  <si>
+    <t>खर्च</t>
+  </si>
+  <si>
+    <t>कवि</t>
+  </si>
+  <si>
+    <t>आदमी</t>
+  </si>
+  <si>
+    <t>सत्रु</t>
+  </si>
+  <si>
+    <t>आलू</t>
+  </si>
+  <si>
+    <t>कुवाँ/कुआँ/कुवां/कुआं</t>
+  </si>
+  <si>
+    <t>गेहूँ/गेहूं</t>
+  </si>
+  <si>
+    <t>लकठो</t>
+  </si>
+  <si>
+    <t>सरसों/सरसोँ</t>
+  </si>
+  <si>
+    <t>गोसाईं/गोसाईँ</t>
+  </si>
+  <si>
+    <t>सोनरा</t>
+  </si>
+  <si>
+    <t>लड़िके/लड़िकइ/लड़िकै</t>
+  </si>
+  <si>
+    <t>राजे/राजइ/राजै</t>
+  </si>
+  <si>
+    <t>घरे/घरइ/घरै</t>
+  </si>
+  <si>
+    <t>खर्चे/खर्चइ/खर्चै</t>
+  </si>
+  <si>
+    <t>कविए/कविअइ/कविऐ</t>
+  </si>
+  <si>
+    <t>आदमिए/आदमिअइ/आदमिऐ</t>
+  </si>
+  <si>
+    <t>सत्रुए/सत्रुअइ/सत्रुऐ</t>
+  </si>
+  <si>
+    <t>आलुए/आलुअइ/आलुऐ</t>
+  </si>
+  <si>
+    <t>कुवें/कुवैं/कुवइं/कुएं/कुवैं/कुवइं/कुवेँ/कुवैँ/कुवँइ/कुएँ/कुऐ़/कुअइँ</t>
+  </si>
+  <si>
+    <t>गेहूँए/गेहूंए/गेहूँऐ/गेहूंऐ/गेहूँअइ/गेहूंअइ</t>
+  </si>
+  <si>
+    <t>लकठे/लकठइ/लकठै</t>
+  </si>
+  <si>
+    <t>सरसोंएं/सरसोँएँ/सरसोंऐं/सरसोँऐँ/सरसोंअइं/सरसोँअइँ</t>
+  </si>
+  <si>
+    <t>गोसाईंए/गोसाईँए/गोसाईंअइं/गोसाईँअइँ/गोसाईंऐं/गोसाईँऐँ</t>
+  </si>
+  <si>
+    <t>सोनरे/सोनरइ/सोनरै</t>
+  </si>
+  <si>
+    <t>लड़िको/लड़िकौ/लड़िकउ</t>
+  </si>
+  <si>
+    <t>राजो/राजौ/राजउ</t>
+  </si>
+  <si>
+    <t>घरो/घरौ/घरउ</t>
+  </si>
+  <si>
+    <t>खर्चो/खर्चौ/खर्चउ</t>
+  </si>
+  <si>
+    <t>कविओ/कविअउ/कविऔ</t>
+  </si>
+  <si>
+    <t>आदमिओ/आदमिअउ/आदमिऔ</t>
+  </si>
+  <si>
+    <t>सत्रुओ/सत्रुअउ/सत्रुऔ</t>
+  </si>
+  <si>
+    <t>आलुओ/आलुअउ/आलुऔ</t>
+  </si>
+  <si>
+    <t>कुवों/कुवौं/कुवउं/कुवोँ/कुवौँ/कुवउँ/कुओं/कुऔं/कुअंउ/कुओँ/कुऔँ/कुअँउ</t>
+  </si>
+  <si>
+    <t>गेहूँओ/गेहूंओ/गेहूँऔ/गेहूंऔ/गेहूँअउ/गेहूंअउ</t>
+  </si>
+  <si>
+    <t>लकठो/लकठउ/लकठौ</t>
+  </si>
+  <si>
+    <t>सरसोंओं/सरसोँओँ/सरसोंऔं/सरसोँऔँ/सरसोंअउं/सरसोँअउँ</t>
+  </si>
+  <si>
+    <t>गोसाईंओ/गोसाईँओ/गोसाईंअउं/गोसाईँअउँ/गोसाईंऔं/गोसाईँऔँ</t>
+  </si>
+  <si>
+    <t>सोनरो/सोनरउ/सोनरौ</t>
+  </si>
+  <si>
+    <t>लड़की</t>
+  </si>
+  <si>
+    <t>माई/मायी</t>
+  </si>
+  <si>
+    <t>रात</t>
+  </si>
+  <si>
+    <t>राति</t>
+  </si>
+  <si>
+    <t>औरत</t>
+  </si>
+  <si>
+    <t>भासा</t>
+  </si>
+  <si>
+    <t>गुड़िया/गुड़िआ</t>
+  </si>
+  <si>
+    <t>सक्ति</t>
+  </si>
+  <si>
+    <t>ऋतु</t>
+  </si>
+  <si>
+    <t>बहू</t>
+  </si>
+  <si>
+    <t>लौ</t>
+  </si>
+  <si>
+    <t>माँ/मां</t>
+  </si>
+  <si>
+    <t>फोटो</t>
+  </si>
+  <si>
+    <t>फोटों/फोटोँ</t>
+  </si>
+  <si>
+    <t>भूइं/भूइँ/भूईं/भूईँ</t>
+  </si>
+  <si>
+    <t>भौं/भौँ</t>
+  </si>
+  <si>
+    <t>भरसाईं/भरसाईँ</t>
+  </si>
+  <si>
+    <t>भोर</t>
+  </si>
+  <si>
+    <t>लड़किऐ</t>
+  </si>
+  <si>
+    <t>मइअइ</t>
+  </si>
+  <si>
+    <t>माइने</t>
+  </si>
+  <si>
+    <t>रातने</t>
+  </si>
+  <si>
+    <t>रातिने</t>
+  </si>
+  <si>
+    <t>औरतने</t>
+  </si>
+  <si>
+    <t>भासने</t>
+  </si>
+  <si>
+    <t>गुड़िअइ</t>
+  </si>
+  <si>
+    <t>गुड़ियनै</t>
+  </si>
+  <si>
+    <t>सक्तिनइ</t>
+  </si>
+  <si>
+    <t>ऋतुअनइ</t>
+  </si>
+  <si>
+    <t>बहुनइ</t>
+  </si>
+  <si>
+    <t>लौनइ</t>
+  </si>
+  <si>
+    <t>मांऐ</t>
+  </si>
+  <si>
+    <t>मांवने</t>
+  </si>
+  <si>
+    <t>माँइने</t>
+  </si>
+  <si>
+    <t>फोटोए</t>
+  </si>
+  <si>
+    <t>फोटोँए</t>
+  </si>
+  <si>
+    <t>फोटोँनइ</t>
+  </si>
+  <si>
+    <t>भूइँए</t>
+  </si>
+  <si>
+    <t>भूइंअनइ</t>
+  </si>
+  <si>
+    <t>भौँउए</t>
+  </si>
+  <si>
+    <t>भौँअइ</t>
+  </si>
+  <si>
+    <t>भौंअनइ</t>
+  </si>
+  <si>
+    <t>भंउअनै</t>
+  </si>
+  <si>
+    <t>भरसाइँऐँ</t>
+  </si>
+  <si>
+    <t>भरसइंनइं</t>
+  </si>
+  <si>
+    <t>भोरनइ</t>
+  </si>
+  <si>
+    <t>लड़किया</t>
+  </si>
+  <si>
+    <t>मइया/मइआ</t>
+  </si>
+  <si>
+    <t>रतिया/रतिआ</t>
+  </si>
+  <si>
+    <t>औरतिया/औरतिआ</t>
+  </si>
+  <si>
+    <t>भसवा</t>
+  </si>
+  <si>
+    <t>लउवा/लउआ</t>
+  </si>
+  <si>
+    <t>गुड़ियवा/गुड़िअवा</t>
+  </si>
+  <si>
+    <t>सक्तिया/सक्तिआ</t>
+  </si>
+  <si>
+    <t>ऋतुवा/ऋतुआ</t>
+  </si>
+  <si>
+    <t>बहुवा/बहुआ</t>
+  </si>
+  <si>
+    <t>भोरवा</t>
+  </si>
+  <si>
+    <t>भरसइंयां/भरसइंयाँ</t>
+  </si>
+  <si>
+    <t>भौंवां/भौँवाँ</t>
+  </si>
+  <si>
+    <t>फोटोंइयां/फोटोंइयाँ</t>
+  </si>
+  <si>
+    <t>भुइंयां/भुइंयाँ/भुइँयां/भुइँयाँ</t>
+  </si>
+  <si>
+    <t>फोटोइया</t>
+  </si>
+  <si>
+    <t>लड़किये/लड़कियइ/लड़कियै</t>
+  </si>
+  <si>
+    <t>मइये/मइयइ/मइयै/मइए/मइअइ/मइऐ</t>
+  </si>
+  <si>
+    <t>रतिये/रतियइ/रतियै/रतिए/रतिअइ/रतिऐ</t>
+  </si>
+  <si>
+    <t>औरतिये/औरतियइ/औरतियै/औरतिए/औरतिअइ/औरतिऐ</t>
+  </si>
+  <si>
+    <t>भसवे/भसवइ/भसवै</t>
+  </si>
+  <si>
+    <t>लउवे/लउवइ/लउवै/लउए/लउअइ/लउऐ</t>
+  </si>
+  <si>
+    <t>गुड़ियवइ/गुड़ियवे/गुड़ियवै/गुड़िअवइ/गुड़िअवे/गुड़िअवै</t>
+  </si>
+  <si>
+    <t>सक्तिये/सक्तियइ/सक्तियै</t>
+  </si>
+  <si>
+    <t>बहुवे/बहुवइ/बहुवै</t>
+  </si>
+  <si>
+    <t>ऋतुवे/ऋतुवै/ऋतुवइ</t>
+  </si>
+  <si>
+    <t>भोरवे/भोरवइ/भोरवै</t>
+  </si>
+  <si>
+    <t>भरसइंयें/भरसइंयैं/भरसइंयइं/भरसइंयेँ/भरसइंयैँ/भरसइंयइँ/भरसइँयें/भरसइँयैं/भरसइँयइं/भरसइँयेँ/भरसइँयैँ/भरसइँयइँ</t>
+  </si>
+  <si>
+    <t>भौंवें/भौँवेँ/भौंवइं/भौँवइँ/भौंवैं/भौँवैँ/भौंवेँ/भौँवें/भौंवइँ/भौँवइं/भौंवैँ/भौँवैं</t>
+  </si>
+  <si>
+    <t>फोटोंइयें/फोटोँइयेँ/फोटोंइयेँ/फोटोँइयें/फोटोंइयैं/फोटोँइयैँ/फोटोंइयैँ/फोटोँइयैं/फोटोंइयइं/फोटोँइयइँ/फोटोंइयइँ/फोटोँइयइं</t>
+  </si>
+  <si>
+    <t>भुइंयें/भुइँयेँ/भुइंयेँ/भुइँयें/भुइंयइं/भुइँयइँ/भुइंयइँ/भुइँयइं/भुइंयैं/भुइँयैँ/भुइंयैँ/भुइँयैं</t>
+  </si>
+  <si>
+    <t>फोटोइये/फोटोइयइ/फोटोइऐ</t>
+  </si>
+  <si>
+    <t>लड़कियो/लड़कियौ/लड़कियउ</t>
+  </si>
+  <si>
+    <t>मइयो/मइयौ/मइयउ/मइओ/मइअउ/मइऔ</t>
+  </si>
+  <si>
+    <t>रतियो/रतियौ/रतियउ/रतिओ/रतिअउ/रतिऔ</t>
+  </si>
+  <si>
+    <t>औरतियो/औरतियौ/औरतियउ/औरतिओ/औरतिऔ/औरतिअउ</t>
+  </si>
+  <si>
+    <t>भसवो/भसवौ/भसवउ</t>
+  </si>
+  <si>
+    <t>लउवो/लउवउ/लउवौ/लउओ/लउअउ/लउऔ</t>
+  </si>
+  <si>
+    <t>गुड़ियवो/गुड़िअवो/गुड़ियवउ/गुड़िअवउ/गुड़ियवौ/गुड़िअवौ</t>
+  </si>
+  <si>
+    <t>सक्तियो/सक्तियौ/सक्तियउ</t>
+  </si>
+  <si>
+    <t>बहुवो/बहुवौ/बहुवउ</t>
+  </si>
+  <si>
+    <t>ऋतुवो/ऋतुवौ/ऋतुवउ</t>
+  </si>
+  <si>
+    <t>भोरवो/भोरवौ/भोरवउ</t>
+  </si>
+  <si>
+    <t>भरसइंयों/भरसइंयौं/भरसइंयउं/भरसइंयोँ/भरसइंयौँ/भरसइंयउँ/भरसइँयों/भरसइँयौं/भरसइँयउं/भरसइँयोँ/भरसइँयौँ/भरसइँयउँ</t>
+  </si>
+  <si>
+    <t>भौंवों/भौँवोँ/भौंवउं/भौँवउँ/भौंवौं/भौँवौँ/भौंवोँ/भौँवों/भौंवउँ/भौँवं/भौंवौँ/भौँवौं</t>
+  </si>
+  <si>
+    <t>फोटोंइयों/फोटोँइयोँ/फोटोंइयोँ/फोटोँइयों/फोटोंइयौं/फोटोँइयौँ/फोटोंइयौँ/फोटोँइयौं/फोटोंइयउं/फोटोँइयउँ/फोटोंइयउँ/फोटोँइयउं</t>
+  </si>
+  <si>
+    <t>भुइंयों/भुइँयोँ/भुइंयोँ/भुइँयों/भुइंयउं/भुइँयउँ/भुइंयउँ/भुइँयउं/भुइंयौं/भुइँयौँ/भुइंयौँ/भुइँयौं</t>
+  </si>
+  <si>
+    <t>फोटोइयो/फोटोइयउ/फोटोइऔ</t>
+  </si>
+  <si>
+    <t>सरसोंने/सरसोँनइ/सरसंनइ/सरसँनइ/सरसंनै/सरसँनै</t>
+  </si>
+  <si>
+    <t>लड़िकनो/लड़िकनौ/लड़िकनउ</t>
+  </si>
+  <si>
+    <t>सरसोंनो/सरसोँनउ/सरसंनउ/सरसँनउ/सरसंनौ/सरसँनौ</t>
+  </si>
+  <si>
+    <t>लड़किअइ</t>
+  </si>
+  <si>
+    <t>मइए</t>
+  </si>
+  <si>
+    <t>मायै</t>
+  </si>
+  <si>
+    <t>रातै</t>
+  </si>
+  <si>
+    <t>रातिअइ</t>
+  </si>
+  <si>
+    <t>औरतै</t>
+  </si>
+  <si>
+    <t>भासै</t>
+  </si>
+  <si>
+    <t>गुड़ियइ</t>
+  </si>
+  <si>
+    <t>गुड़िअने</t>
+  </si>
+  <si>
+    <t>सक्तिने</t>
+  </si>
+  <si>
+    <t>ऋतुने</t>
+  </si>
+  <si>
+    <t>बहुने</t>
+  </si>
+  <si>
+    <t>लौने</t>
+  </si>
+  <si>
+    <t>मांअइ</t>
+  </si>
+  <si>
+    <t>मांवनै</t>
+  </si>
+  <si>
+    <t>मांयने</t>
+  </si>
+  <si>
+    <t>फोटों</t>
+  </si>
+  <si>
+    <t>फोटोँने</t>
+  </si>
+  <si>
+    <t>भूइंए</t>
+  </si>
+  <si>
+    <t>भूइँअने</t>
+  </si>
+  <si>
+    <t>भौँए</t>
+  </si>
+  <si>
+    <t>भौंअइ</t>
+  </si>
+  <si>
+    <t>भंउअने</t>
+  </si>
+  <si>
+    <t>भँउअनै</t>
+  </si>
+  <si>
+    <t>भरसाइंऐं</t>
+  </si>
+  <si>
+    <t>भरसइँने</t>
+  </si>
+  <si>
+    <t>भोरने</t>
+  </si>
+  <si>
+    <t>भरसइंयन/भरसइँयन</t>
+  </si>
+  <si>
+    <t>भौंवने/भौंवनइ/भौंवनइ/भोँवने/भोँवनइ/भोँवनै</t>
+  </si>
+  <si>
+    <t>लड़किए</t>
+  </si>
+  <si>
+    <t>माइए</t>
+  </si>
+  <si>
+    <t>मायिअइ</t>
+  </si>
+  <si>
+    <t>रातइ</t>
+  </si>
+  <si>
+    <t>रातिए</t>
+  </si>
+  <si>
+    <t>औरतइ</t>
+  </si>
+  <si>
+    <t>भासइ</t>
+  </si>
+  <si>
+    <t>गुड़िए</t>
+  </si>
+  <si>
+    <t>गुड़िअनइ</t>
+  </si>
+  <si>
+    <t>सक्तिऐ</t>
+  </si>
+  <si>
+    <t>ऋतुऐ</t>
+  </si>
+  <si>
+    <t>बहुऐ</t>
+  </si>
+  <si>
+    <t>लौऐ</t>
+  </si>
+  <si>
+    <t>माँए</t>
+  </si>
+  <si>
+    <t>मांवनइ</t>
+  </si>
+  <si>
+    <t>मांयनै</t>
+  </si>
+  <si>
+    <t>मांँइनै</t>
+  </si>
+  <si>
+    <t>फोटोनै</t>
+  </si>
+  <si>
+    <t>फोटोंऐ</t>
+  </si>
+  <si>
+    <t>भूइं</t>
+  </si>
+  <si>
+    <t>भूइंअने</t>
+  </si>
+  <si>
+    <t>भौंए</t>
+  </si>
+  <si>
+    <t>भौंउऐ</t>
+  </si>
+  <si>
+    <t>भँउअने</t>
+  </si>
+  <si>
+    <t>भौँअनै</t>
+  </si>
+  <si>
+    <t>भरसइँअइँ</t>
+  </si>
+  <si>
+    <t>भरसइंने</t>
+  </si>
+  <si>
+    <t>भोरै</t>
+  </si>
+  <si>
+    <t>कुवाँ</t>
+  </si>
+  <si>
+    <t>गेहूँ</t>
+  </si>
+  <si>
+    <t>सरसों</t>
+  </si>
+  <si>
+    <t>गोसाईं</t>
+  </si>
+  <si>
+    <t>माई</t>
+  </si>
+  <si>
+    <t>गुड़िया</t>
+  </si>
+  <si>
+    <t>माँ</t>
+  </si>
+  <si>
+    <t>भौं</t>
+  </si>
+  <si>
+    <t>मायिए</t>
+  </si>
+  <si>
+    <t>राते</t>
+  </si>
+  <si>
+    <t>औरते</t>
+  </si>
+  <si>
+    <t>भासे</t>
+  </si>
+  <si>
+    <t>गुड़िये</t>
+  </si>
+  <si>
+    <t>गुड़ियने</t>
+  </si>
+  <si>
+    <t>सक्तिअइ</t>
+  </si>
+  <si>
+    <t>ऋतुअइ</t>
+  </si>
+  <si>
+    <t>बहुअइ</t>
+  </si>
+  <si>
+    <t>लौअइ</t>
+  </si>
+  <si>
+    <t>माँऐ</t>
+  </si>
+  <si>
+    <t>माँवने</t>
+  </si>
+  <si>
+    <t>मांयनइ</t>
+  </si>
+  <si>
+    <t>मांँइनइ</t>
+  </si>
+  <si>
+    <t>फोटोनइ</t>
+  </si>
+  <si>
+    <t>फोटोंअइ</t>
+  </si>
+  <si>
+    <t>फोटोंनै</t>
+  </si>
+  <si>
+    <t>भूइँऐ</t>
+  </si>
+  <si>
+    <t>भौँउऐ</t>
+  </si>
+  <si>
+    <t>भौँअने</t>
+  </si>
+  <si>
+    <t>भौंअनै</t>
+  </si>
+  <si>
+    <t>भरसइंअइं</t>
+  </si>
+  <si>
+    <t>भरसाइँनइँ</t>
+  </si>
+  <si>
+    <t>भोरइ</t>
+  </si>
+  <si>
+    <t>मइया</t>
+  </si>
+  <si>
+    <t>रतिया</t>
+  </si>
+  <si>
+    <t>औरतिया</t>
+  </si>
+  <si>
+    <t>लउवा</t>
+  </si>
+  <si>
+    <t>गुड़ियवा</t>
+  </si>
+  <si>
+    <t>सक्तिया</t>
+  </si>
+  <si>
+    <t>ऋतुवा</t>
+  </si>
+  <si>
+    <t>बहुवा</t>
+  </si>
+  <si>
+    <t>भरसइंयां</t>
+  </si>
+  <si>
+    <t>भौंवां</t>
+  </si>
+  <si>
+    <t>फोटोंइयां</t>
+  </si>
+  <si>
+    <t>भुइंयां</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,6 +1217,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1240,7 +1241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1280,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1585,10 +1586,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,156 +1606,156 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>20</v>
@@ -1762,2957 +1763,2946 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>352</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>352</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>73</v>
+        <v>290</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>35</v>
+        <v>352</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>355</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>135</v>
+        <v>340</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>148</v>
+        <v>321</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>149</v>
+        <v>292</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>105</v>
+        <v>353</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>156</v>
+        <v>357</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>161</v>
+        <v>358</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>166</v>
+        <v>325</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>166</v>
+        <v>325</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>167</v>
+        <v>296</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>170</v>
+        <v>359</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>175</v>
+        <v>360</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>176</v>
+        <v>327</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>177</v>
+        <v>298</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>180</v>
+        <v>361</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>186</v>
+        <v>329</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>190</v>
+        <v>363</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>191</v>
+        <v>330</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>195</v>
+        <v>364</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>196</v>
+        <v>331</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>200</v>
+        <v>365</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>205</v>
+        <v>366</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>210</v>
+        <v>367</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>211</v>
+        <v>334</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>215</v>
+        <v>368</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>220</v>
+        <v>369</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>225</v>
+        <v>370</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>226</v>
+        <v>337</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>229</v>
+        <v>371</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="F82" s="3" t="s">
-        <v>232</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>233</v>
+        <v>372</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>237</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>135</v>
+        <v>340</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>241</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>243</v>
+        <v>341</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>246</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>247</v>
+        <v>342</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>250</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>251</v>
+        <v>375</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>255</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>256</v>
+        <v>376</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>261</v>
+        <v>377</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>265</v>
+        <v>378</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>269</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>270</v>
+        <v>379</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>279</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>73</v>
+        <v>290</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>35</v>
+        <v>352</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>282</v>
+        <v>105</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>282</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>288</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>294</v>
+        <v>384</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>299</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>302</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>308</v>
+        <v>114</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>308</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>310</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>311</v>
+        <v>389</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>314</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>317</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>318</v>
+        <v>391</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>320</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>323</v>
+        <v>119</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>323</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>325</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="C124" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="D124" t="s">
-        <v>328</v>
+        <v>121</v>
       </c>
       <c r="E124" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="F124" t="s">
-        <v>328</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="C125" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="D125" t="s">
-        <v>330</v>
+        <v>122</v>
       </c>
       <c r="E125" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="F125" t="s">
-        <v>330</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="C126" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="D126" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="E126" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="F126" t="s">
-        <v>332</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="C127" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
       <c r="D127" t="s">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="E127" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
       <c r="F127" t="s">
-        <v>334</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="C128" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="D128" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="E128" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="F128" t="s">
-        <v>336</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>384</v>
       </c>
       <c r="C129" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="D129" t="s">
-        <v>338</v>
+        <v>126</v>
       </c>
       <c r="E129" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="F129" t="s">
-        <v>338</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="D130" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="E130" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="F130" t="s">
-        <v>340</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="C131" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="D131" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="E131" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="F131" t="s">
-        <v>342</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="C132" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="D132" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="E132" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="F132" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="C133" t="s">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="D133" t="s">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="E133" t="s">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="F133" t="s">
-        <v>346</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="C134" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="D134" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="E134" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="F134" t="s">
-        <v>348</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>311</v>
+        <v>389</v>
       </c>
       <c r="C135" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="D135" t="s">
-        <v>350</v>
+        <v>132</v>
       </c>
       <c r="E135" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="F135" t="s">
-        <v>350</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="C136" t="s">
-        <v>351</v>
+        <v>269</v>
       </c>
       <c r="D136" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="E136" t="s">
-        <v>351</v>
+        <v>269</v>
       </c>
       <c r="F136" t="s">
-        <v>353</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="D137" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="E137" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="F137" t="s">
-        <v>355</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="C138" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="D138" t="s">
-        <v>357</v>
+        <v>135</v>
       </c>
       <c r="E138" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>357</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="C139" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="D139" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="E139" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>359</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>362</v>
+        <v>137</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>362</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>364</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>366</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>367</v>
+        <v>276</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>368</v>
+        <v>140</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>367</v>
+        <v>276</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>368</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>369</v>
+        <v>277</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>369</v>
+        <v>277</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>369</v>
+        <v>277</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>370</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>294</v>
+        <v>384</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>371</v>
+        <v>278</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>372</v>
+        <v>142</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>371</v>
+        <v>278</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>372</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>374</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>376</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>377</v>
+        <v>281</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>377</v>
+        <v>281</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>377</v>
+        <v>281</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>379</v>
+        <v>282</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>379</v>
+        <v>282</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>379</v>
+        <v>282</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>380</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>382</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>311</v>
+        <v>389</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>384</v>
+        <v>148</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>384</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>386</v>
+        <v>149</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>386</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>387</v>
+        <v>286</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>387</v>
+        <v>286</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>387</v>
+        <v>286</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>389</v>
+        <v>287</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>390</v>
+        <v>151</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>389</v>
+        <v>287</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>390</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>391</v>
+        <v>288</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>391</v>
+        <v>288</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>391</v>
+        <v>288</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>392</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>394</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
